--- a/VersionRecords/Version 5.1.6 20161212/版本Bug和特性计划及评审表v5.1.6_EQ组.xlsx
+++ b/VersionRecords/Version 5.1.6 20161212/版本Bug和特性计划及评审表v5.1.6_EQ组.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\mogo\Mogo_Doc\VersionRecords\Version 5.1.6 20161212\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="141">
   <si>
     <t>No</t>
   </si>
@@ -604,10 +604,74 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#400-conf
+sysconfig.tele_url = http://210.14.79.50
+sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
+sysconfig.tele_password = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产已配置，这里不方便列出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+sysconfig.tele_generator_num = 4009006868</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#400-conf
+sysconfig.tele_url = http://210.14.79.50
+sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
+sysconfig.tele_password = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产已配置，这里不方便列出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+sysconfig.tele_generator_num = 4009006868</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>#400-conf
 sysconfig.tele_url = http://210.14.79.50
 sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
-sysconfig.tele_password = 70A5579332F49374A09B635F3B88B4BE
+sysconfig.tele_password = 70A5579332F49374A09B3434341111EO2
 sysconfig.tele_generator_num = 4009006868</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -615,28 +679,16 @@
     <t>#400-conf
 sysconfig.tele_url = http://210.14.79.50
 sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
-sysconfig.tele_password = 70A5579332F49374A09B635F3B88B4BE
+sysconfig.tele_password = 70A5579332F49374A09B3434341111EO2
 sysconfig.tele_generator_num = 4009006868</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#400-conf
-sysconfig.tele_url = http://210.14.79.50
-sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
-sysconfig.tele_password = 70A5579332F49374A09B635F3B88B4BE
-sysconfig.tele_generator_num = 4009006868</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -766,6 +818,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1513,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1931,7 +1990,7 @@
         <v>38</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>126</v>
@@ -5492,8 +5551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6464,7 +6523,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>79</v>
@@ -6503,7 +6562,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>79</v>
@@ -6574,7 +6633,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7545,7 +7604,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>79</v>
@@ -7584,7 +7643,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>91</v>
@@ -7632,6 +7691,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7640,7 +7700,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8611,7 +8671,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>91</v>
@@ -8650,7 +8710,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>106</v>
